--- a/biology/Zoologie/Euconodonta/Euconodonta.xlsx
+++ b/biology/Zoologie/Euconodonta/Euconodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euconodontes (Euconodonta en latin, terme signifiant « conodontes vrais ») forment une infra-classe de poissons fossiles agnathes.
-Le terme Euconodonta est mis en synonymie de « Conodonti » par Sweet et Donoghue dans leur article de 2001 mais cet usage n'est pas largement accepté[3].
+Le terme Euconodonta est mis en synonymie de « Conodonti » par Sweet et Donoghue dans leur article de 2001 mais cet usage n'est pas largement accepté.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Éléments et appareils</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs éléments sont formés de francolite[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs éléments sont formés de francolite.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">▲
  └─o Conodonta (éteint)
